--- a/CodeSystem-school-codes.xlsx
+++ b/CodeSystem-school-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T16:20:36+00:00</t>
+    <t>2025-04-11T19:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -520,9 +520,7 @@
       <c r="C2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -534,9 +532,7 @@
       <c r="C3" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">

--- a/CodeSystem-school-codes.xlsx
+++ b/CodeSystem-school-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T19:45:36+00:00</t>
+    <t>2025-04-16T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-school-codes.xlsx
+++ b/CodeSystem-school-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T13:15:00+00:00</t>
+    <t>2025-04-17T22:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-school-codes.xlsx
+++ b/CodeSystem-school-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-17T22:39:33+00:00</t>
+    <t>2025-04-21T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>School or training related codes not found in standard terminologies.</t>
+    <t>School or training related codes, mapping to standard terminologies is TBD.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-school-codes.xlsx
+++ b/CodeSystem-school-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-21T21:10:00+00:00</t>
+    <t>2025-09-02T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
